--- a/Question_Set2/Programming skills/Jenkin.xlsx
+++ b/Question_Set2/Programming skills/Jenkin.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You work at a software development company where management recently decided to use Jenkins as a build automation tool. To meet compliance policies, you need to install Jenkins on a local server. You prepare a machine running a fresh installation of Windows Server 2016 for this purpose.  What should you do before proceeding with the deployment of Jenkins?', 'ques_type': 2, 'options': ['Install the supported version of Java.', 'Configure network interface card teaming.', 'Add the Internet Information Services feature.', 'Install the latest version of .Net Framework.'], 'score': 'Install the supported version of Java.'}, {'title': 'You work at a development company that uses Kubernetes to deploy its application builds. You want to deploy Jenkins on the same Kubernetes cluster. You want Jenkins to scale using its ability to automatically create Jenkins agent nodes in Kubernetes.  What should you do to achieve the planned autoscaling configuration?', 'ques_type': 2, 'options': ['Include the installation of the docker-workflow plugin in the Jenkins dockerfile.', 'Disable the role-based access control in the Kubernetes cluster.', 'Include the installation of the Kubernetes plugin in the Jenkins dockerfile.', 'Create separate namespaces for the Jenkins controller and agents.'], 'score': 'Include the installation of the Kubernetes plugin in the Jenkins dockerfile.'}, {'title': 'Your team uses Jenkins pipelines to automate the building process. One of the stages in the pipeline refers to the third-party repository, where it authenticates using login and password. The login and password are saved in Jenkins with the ID “file-repo-creds.” These credentials are assigned to the environment variable in Jenkinsfile, as shown below. You need to refer to the username from these credentials in one of the later stages.What is the easiest way to refer to the username? pipeline {\n           agent any\n           environment {\n          REPO_ACCESS = credentials(‘file-repo-creds’)     \n  }', 'ques_type': 2, 'options': ['Use the existing REPO_ACCESS variable.', 'Use the existing REPO_USR_ACCESS variable.', 'Create a new stage-level variable.', 'Use the existing REPO_ACCESS_USR variable.'], 'score': 'Use the existing REPO_ACCESS_USR variable.'}, {'title': 'You have a distributed build of Jenkins with a controller and one agent. Both have default security configurations. You want to secure the controller by enabling a firewall on the operating system level.What should you configure first?', 'ques_type': 2, 'options': ['SSL protection with enabled offloading.', 'Reverse proxy with URL rewriting.', 'Manual network route.', 'Fixed port for agent connections.'], 'score': 'Fixed port for agent connections.'}]</t>
+    <t>questions = [
+    {
+        "title": "You work at a software development company where management recently decided to use Jenkins as a build automation tool. To meet compliance policies, you need to install Jenkins on a local server. You prepare a machine running a fresh installation of Windows Server 2016 for this purpose.  What should you do before proceeding with the deployment of Jenkins?",
+        "ques_type": 2,
+        "options": [
+            "Install the supported version of Java.",
+            "Configure network interface card teaming.",
+            "Add the Internet Information Services feature.",
+            "Install the latest version of .Net Framework."
+        ],
+        "score": "Install the supported version of Java."
+    },
+    {
+        "title": "You work at a development company that uses Kubernetes to deploy its application builds. You want to deploy Jenkins on the same Kubernetes cluster. You want Jenkins to scale using its ability to automatically create Jenkins agent nodes in Kubernetes.  What should you do to achieve the planned autoscaling configuration?",
+        "ques_type": 2,
+        "options": [
+            "Include the installation of the docker-workflow plugin in the Jenkins dockerfile.",
+            "Disable the role-based access control in the Kubernetes cluster.",
+            "Include the installation of the Kubernetes plugin in the Jenkins dockerfile.",
+            "Create separate namespaces for the Jenkins controller and agents."
+        ],
+        "score": "Include the installation of the Kubernetes plugin in the Jenkins dockerfile."
+    },
+    {
+        "title": "Your team uses Jenkins pipelines to automate the building process. One of the stages in the pipeline refers to the third-party repository, where it authenticates using login and password. The login and password are saved in Jenkins with the ID \u201cfile-repo-creds.\u201d These credentials are assigned to the environment variable in Jenkinsfile, as shown below. You need to refer to the username from these credentials in one of the later stages.What is the easiest way to refer to the username? pipeline {\n           agent any\n           environment {\n          REPO_ACCESS = credentials(\u2018file-repo-creds\u2019)     \n  }",
+        "ques_type": 2,
+        "options": [
+            "Use the existing REPO_ACCESS variable.",
+            "Use the existing REPO_USR_ACCESS variable.",
+            "Create a new stage-level variable.",
+            "Use the existing REPO_ACCESS_USR variable."
+        ],
+        "score": "Use the existing REPO_ACCESS_USR variable."
+    },
+    {
+        "title": "You have a distributed build of Jenkins with a controller and one agent. Both have default security configurations. You want to secure the controller by enabling a firewall on the operating system level.What should you configure first?",
+        "ques_type": 2,
+        "options": [
+            "SSL protection with enabled offloading.",
+            "Reverse proxy with URL rewriting.",
+            "Manual network route.",
+            "Fixed port for agent connections."
+        ],
+        "score": "Fixed port for agent connections."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
